--- a/SQL-Python-Git/SQL/SQL Project/2 - Plot/top_10_customers_2007_payments.xlsx
+++ b/SQL-Python-Git/SQL/SQL Project/2 - Plot/top_10_customers_2007_payments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d9df4817efbddffa/Documents/Ryan/Career Change/03. Data Science - Udacity/01. Python and SQL/SQL-Python-Git/SQL/SQL Project/2 - Plot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihscourse\Desktop\Data Science - Udacity\SQL-Python-Git\SQL\SQL Project\2 - Plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{45B061CE-D337-48FB-9112-BB0C5628A150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97199E43-9C28-4199-BC6B-DA5779A81660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top_10_customers_2007_payments" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1531,6 +1531,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1596,6 +1651,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Rentals</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2594,16 +2709,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2638,7 +2753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44594</v>
       </c>
@@ -2673,7 +2788,7 @@
         <v>25.93</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44623</v>
       </c>
@@ -2708,7 +2823,7 @@
         <v>67.88</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44655</v>
       </c>
@@ -2743,7 +2858,7 @@
         <v>89.82</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44686</v>
       </c>
